--- a/resources/wheels/227 - Синица.xlsx
+++ b/resources/wheels/227 - Синица.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -712,16 +712,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -920,9 +920,9 @@
       <c r="F16" s="19">
         <v>33.200000000000003</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>46.5</v>
+        <v>50.73799999999999</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1016,7 +1016,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.169</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -1026,7 +1028,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>3.029</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -1036,7 +1040,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>1.04</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -1555,16 +1561,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1763,9 +1769,9 @@
       <c r="F16" s="19">
         <v>34.200000000000003</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>47.5</v>
+        <v>52.515</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1859,7 +1865,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -1869,7 +1877,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>2.435</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -1879,7 +1889,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.58</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -2401,16 +2413,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2609,9 +2621,9 @@
       <c r="F16" s="19">
         <v>112.4</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>125.7</v>
+        <v>134.102</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2705,7 +2717,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>2.743</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -2715,7 +2729,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>3.256</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -2725,7 +2741,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.403</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -3244,16 +3262,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3452,9 +3470,9 @@
       <c r="F16" s="19">
         <v>33.200000000000003</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>46.5</v>
+        <v>50.73799999999999</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3548,7 +3566,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.169</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -3558,7 +3578,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>3.029</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -3568,7 +3590,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>1.04</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -4087,16 +4111,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4295,9 +4319,9 @@
       <c r="F16" s="19">
         <v>33.200000000000003</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>46.5</v>
+        <v>50.73799999999999</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4391,7 +4415,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.169</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -4401,7 +4427,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>3.029</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -4411,7 +4439,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>1.04</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -4930,16 +4960,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5138,9 +5168,9 @@
       <c r="F16" s="19">
         <v>33.200000000000003</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>46.5</v>
+        <v>50.73799999999999</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5234,7 +5264,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.169</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -5244,7 +5276,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>3.029</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -5254,7 +5288,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>1.04</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -5773,16 +5809,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5981,9 +6017,9 @@
       <c r="F16" s="19">
         <v>34.200000000000003</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>47.5</v>
+        <v>52.515</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6077,7 +6113,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -6087,7 +6125,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>2.435</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -6097,7 +6137,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.58</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -6616,16 +6658,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6824,9 +6866,9 @@
       <c r="F16" s="19">
         <v>34.200000000000003</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>47.5</v>
+        <v>52.515</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6920,7 +6962,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -6930,7 +6974,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>2.435</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -6940,7 +6986,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.58</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -7459,16 +7507,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7667,9 +7715,9 @@
       <c r="F16" s="19">
         <v>34.200000000000003</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>47.5</v>
+        <v>52.515</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -7763,7 +7811,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -7773,7 +7823,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>2.435</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -7783,7 +7835,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.58</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -8302,16 +8356,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8510,9 +8564,9 @@
       <c r="F16" s="19">
         <v>34.200000000000003</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>47.5</v>
+        <v>52.515</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8606,7 +8660,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -8616,7 +8672,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>2.435</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -8626,7 +8684,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.58</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -9145,16 +9205,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9353,9 +9413,9 @@
       <c r="F16" s="19">
         <v>34.200000000000003</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>47.5</v>
+        <v>52.515</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -9449,7 +9509,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -9459,7 +9521,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>2.435</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -9469,7 +9533,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.58</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
